--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6530FCB-ACDE-427E-9155-37821719A24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422F5607-2DBE-47A9-B35F-D48DE0A5A3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,6 +1362,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,9 +1469,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1383,6 +1487,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,15 +1510,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1437,17 +1535,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1503,50 +1610,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1554,34 +1625,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1592,59 +1637,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -18172,6 +18172,671 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217487</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>229932</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936FC7A9-CF7A-4337-A705-C7B6ABC58914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5360987" y="4929188"/>
+          <a:ext cx="1155445" cy="821700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G6-4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レシピ投稿</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>完了画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2938B4-1A7B-4E74-BBBB-4B14396CCA67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="4319588"/>
+          <a:ext cx="0" cy="595312"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>204299</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795747B6-A019-4AA8-9106-B460AE8A79BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6034088" y="4446588"/>
+          <a:ext cx="742461" cy="312198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220067</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4126D0CE-4DC7-4585-8286-593782899585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4902200" y="4443412"/>
+          <a:ext cx="747117" cy="304486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5801B907-18D4-49D3-95FC-10E7CDC303A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5700713" y="4303712"/>
+          <a:ext cx="0" cy="611188"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21452,16 +22117,16 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="74" t="s">
+      <c r="X3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="76">
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75">
         <v>45190</v>
       </c>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="75"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="74"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="9"/>
@@ -21578,20 +22243,20 @@
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="88"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -21609,80 +22274,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="68" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="74" t="s">
+      <c r="X8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="74" t="s">
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="74" t="s">
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="75"/>
+      <c r="AC8" s="74"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="73"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="107"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="52" t="s">
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AC9" s="53"/>
+      <c r="AC9" s="90"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="9"/>
@@ -21711,12 +22376,12 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="55"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
       <c r="AD10" s="28"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="9"/>
@@ -21745,12 +22410,12 @@
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="57"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="94"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="26"/>
       <c r="AF11" s="9"/>
@@ -21791,106 +22456,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
       <c r="AF13" s="9"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
       <c r="AF14" s="9"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
       <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -22029,638 +22694,638 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="43" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="43" t="s">
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="43" t="s">
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="45"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
       <c r="AF20" s="9"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="59">
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80">
         <v>45190</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="49" t="s">
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="43" t="s">
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="45"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="79"/>
       <c r="AF21" s="9"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="59">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80">
         <v>45191</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="49" t="s">
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="43" t="s">
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="45"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="79"/>
       <c r="AF22" s="9"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="45"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="79"/>
       <c r="AF23" s="9"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="45"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="85"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="79"/>
       <c r="AF24" s="9"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="45"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="79"/>
       <c r="AF25" s="9"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="45"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="84"/>
+      <c r="Y26" s="84"/>
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="79"/>
       <c r="AF26" s="9"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="45"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="84"/>
+      <c r="Y27" s="84"/>
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="79"/>
       <c r="AF27" s="9"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="50"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="45"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="79"/>
       <c r="AF28" s="9"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="45"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="79"/>
       <c r="AF29" s="9"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="45"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="79"/>
       <c r="AF30" s="9"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="50"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="45"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="84"/>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="79"/>
       <c r="AF31" s="9"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="50"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="45"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="84"/>
+      <c r="W32" s="84"/>
+      <c r="X32" s="84"/>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="84"/>
+      <c r="AA32" s="84"/>
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="79"/>
       <c r="AF32" s="9"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="45"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="84"/>
+      <c r="AA33" s="84"/>
+      <c r="AB33" s="85"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="79"/>
       <c r="AF33" s="9"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="45"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="84"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="78"/>
+      <c r="AE34" s="79"/>
       <c r="AF34" s="9"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="43"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="45"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="84"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="79"/>
       <c r="AF35" s="9"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="44"/>
-      <c r="AE36" s="45"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="84"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="77"/>
+      <c r="AD36" s="78"/>
+      <c r="AE36" s="79"/>
       <c r="AF36" s="9"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="45"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
+      <c r="R37" s="84"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="84"/>
+      <c r="V37" s="84"/>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="84"/>
+      <c r="AA37" s="84"/>
+      <c r="AB37" s="85"/>
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="78"/>
+      <c r="AE37" s="79"/>
       <c r="AF37" s="9"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -22699,53 +23364,27 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="AB9:AC11"/>
+    <mergeCell ref="B13:AE15"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="J20:AB20"/>
+    <mergeCell ref="J21:AB21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="J22:AB22"/>
@@ -22762,27 +23401,53 @@
     <mergeCell ref="J33:AB33"/>
     <mergeCell ref="AC33:AE33"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="AB9:AC11"/>
-    <mergeCell ref="B13:AE15"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="J20:AB20"/>
-    <mergeCell ref="J21:AB21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:Q9"/>
-    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22812,166 +23477,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="97" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="84" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="90" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="117"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="83"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -24230,17 +24895,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -24264,362 +24929,362 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="4" style="106" customWidth="1"/>
-    <col min="3" max="12" width="10.08984375" style="106" customWidth="1"/>
-    <col min="13" max="16384" width="8.90625" style="106"/>
+    <col min="1" max="1" width="14.90625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="4" style="46" customWidth="1"/>
+    <col min="3" max="12" width="10.08984375" style="46" customWidth="1"/>
+    <col min="13" max="16384" width="8.90625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="111">
+      <c r="L2" s="136">
         <v>45197</v>
       </c>
-      <c r="M2" s="112"/>
+      <c r="M2" s="137"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="112"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="137"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="110" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="114">
+      <c r="L4" s="138">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M4" s="112"/>
+      <c r="M4" s="137"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="116"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="119"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="119"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="121"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="123"/>
+      <c r="A8" s="58"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A9" s="121"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124" t="s">
+      <c r="A9" s="58"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="127"/>
-      <c r="M9" s="123"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="61"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A10" s="121"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="130" t="s">
+      <c r="I10" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="130" t="s">
+      <c r="J10" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="131"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="132"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A11" s="121"/>
-      <c r="B11" s="133" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="137" t="s">
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="132"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A12" s="121"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="134" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="137" t="s">
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="132"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A13" s="121"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="134" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137" t="s">
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="132"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A14" s="121"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="134" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137" t="s">
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="127"/>
-      <c r="M14" s="132"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A15" s="121"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="134" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137" t="s">
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="137"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="132"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="134" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137" t="s">
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="J16" s="138"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="132"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A17" s="121"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="134" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="133" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="138" t="s">
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="131"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="132"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="121"/>
-      <c r="M18" s="123"/>
+      <c r="A18" s="58"/>
+      <c r="M18" s="60"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="142"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="144"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24758,166 +25423,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="97" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="84" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="90" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="117"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="83"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -26176,17 +26841,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -26215,166 +26880,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="97" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="84" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="90" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="117"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="83"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -27633,17 +28298,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -27672,166 +28337,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="97" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="84" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="90" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="117"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="83"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -29090,17 +29755,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -29129,166 +29794,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="97" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="84" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="90" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="117"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="83"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -30547,17 +31212,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -30586,166 +31251,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="97" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="84" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="90" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="117"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="83"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -32004,17 +32669,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -32043,166 +32708,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="97" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="84" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="90" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="117"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="83"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -33461,17 +34126,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -33500,166 +34165,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="97" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="97" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="100" t="s">
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="99"/>
+      <c r="AG2" s="111"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="84" t="s">
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="90" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="78" t="s">
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="117"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="83"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="120"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -34918,17 +35583,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -34940,12 +35605,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35121,19 +35787,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35157,11 +35824,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422F5607-2DBE-47A9-B35F-D48DE0A5A3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1356A3-60E5-455B-951E-6C87B77CBBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1449,18 +1449,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,15 +1457,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1487,9 +1469,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,6 +1489,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1535,26 +1523,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1610,6 +1589,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1636,15 +1645,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -17002,333 +17002,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>26987</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>150813</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>35886</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A8485A-75E7-4EF3-BB6A-41C15E0248FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7742237" y="1571624"/>
-          <a:ext cx="1266826" cy="821700"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>G6-3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>自分のレシピ投稿</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画面（仮）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3AB331-A895-487D-97DC-680F07299AC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6881813" y="1833563"/>
-          <a:ext cx="849312" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5823F470-D74B-483D-8D8D-64E833E03D87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6883400" y="2174875"/>
-          <a:ext cx="855663" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7937</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -17817,344 +17490,6 @@
               <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>207367</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66361</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A878E8CE-0993-4843-A4E3-9A5564DB1E57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6889750" y="2278063"/>
-          <a:ext cx="747117" cy="304486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>251924</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>51848</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1823F2-A637-4FD9-A4E2-C36D91534605}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6938963" y="1462088"/>
-          <a:ext cx="742461" cy="312198"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>移行</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -21871,7 +21206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -22117,16 +21452,16 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="73" t="s">
+      <c r="X3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75">
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="106">
         <v>45190</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="74"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="105"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="9"/>
@@ -22243,20 +21578,20 @@
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="88"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="78"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -22274,80 +21609,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="102" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="104"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="100"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="73" t="s">
+      <c r="X8" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="73" t="s">
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="73" t="s">
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="74"/>
+      <c r="AC8" s="105"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="107"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="103"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="89" t="s">
+      <c r="X9" s="82"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="AC9" s="90"/>
+      <c r="AC9" s="83"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="9"/>
@@ -22376,12 +21711,12 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="85"/>
       <c r="AD10" s="28"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="9"/>
@@ -22410,12 +21745,12 @@
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="94"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="87"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="26"/>
       <c r="AF11" s="9"/>
@@ -22456,106 +21791,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
       <c r="AF13" s="9"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
       <c r="AF14" s="9"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="88"/>
       <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -22694,638 +22029,638 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="77" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="77" t="s">
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="77" t="s">
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="75"/>
       <c r="AF20" s="9"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80">
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="89">
         <v>45190</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83" t="s">
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="77" t="s">
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="79"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="75"/>
       <c r="AF21" s="9"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80">
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="89">
         <v>45191</v>
       </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83" t="s">
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="77" t="s">
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="79"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="75"/>
       <c r="AF22" s="9"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="79"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="75"/>
       <c r="AF23" s="9"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="79"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="75"/>
       <c r="AF24" s="9"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="79"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="75"/>
       <c r="AF25" s="9"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="79"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="75"/>
       <c r="AF26" s="9"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="79"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="75"/>
       <c r="AF27" s="9"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="79"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="75"/>
       <c r="AF28" s="9"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="79"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="75"/>
       <c r="AF29" s="9"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="79"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="75"/>
       <c r="AF30" s="9"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="79"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="75"/>
       <c r="AF31" s="9"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="79"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="75"/>
       <c r="AF32" s="9"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="85"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="79"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="75"/>
       <c r="AF33" s="9"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="79"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="75"/>
       <c r="AF34" s="9"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="79"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="75"/>
       <c r="AF35" s="9"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="77"/>
-      <c r="AD36" s="78"/>
-      <c r="AE36" s="79"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="80"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="75"/>
       <c r="AF36" s="9"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="85"/>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="79"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="80"/>
+      <c r="Z37" s="80"/>
+      <c r="AA37" s="80"/>
+      <c r="AB37" s="81"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="75"/>
       <c r="AF37" s="9"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -23364,6 +22699,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="AC21:AE21"/>
@@ -23380,74 +22783,6 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -23477,166 +22812,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="110"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -24895,17 +24230,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -24974,10 +24309,10 @@
       <c r="K2" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="136">
+      <c r="L2" s="139">
         <v>45197</v>
       </c>
-      <c r="M2" s="137"/>
+      <c r="M2" s="140"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="51" t="s">
@@ -24999,8 +24334,8 @@
       <c r="K3" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="136"/>
-      <c r="M3" s="137"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="140"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="47" t="s">
@@ -25020,10 +24355,10 @@
       <c r="K4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="138">
+      <c r="L4" s="141">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M4" s="137"/>
+      <c r="M4" s="140"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="52"/>
@@ -25085,12 +24420,12 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="58"/>
       <c r="F9" s="60"/>
-      <c r="G9" s="139" t="s">
+      <c r="G9" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="144"/>
       <c r="K9" s="61"/>
       <c r="M9" s="60"/>
     </row>
@@ -25119,15 +24454,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="58"/>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="67" t="s">
         <v>86</v>
       </c>
@@ -25140,13 +24475,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="58"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="133" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="67" t="s">
         <v>88</v>
       </c>
@@ -25159,13 +24494,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="58"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="133" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="67" t="s">
         <v>90</v>
       </c>
@@ -25178,13 +24513,13 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="58"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="133" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="67" t="s">
         <v>92</v>
       </c>
@@ -25197,13 +24532,13 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="58"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="133" t="s">
+      <c r="B15" s="134"/>
+      <c r="C15" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="67"/>
       <c r="H15" s="67" t="s">
         <v>94</v>
@@ -25216,13 +24551,13 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="58"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="133" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="138"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
       <c r="I16" s="67" t="s">
@@ -25235,13 +24570,13 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="58"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="133" t="s">
+      <c r="B17" s="135"/>
+      <c r="C17" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="138"/>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
       <c r="I17" s="67"/>
@@ -25273,6 +24608,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -25281,10 +24620,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25423,166 +24758,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="110"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -26841,17 +26176,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -26880,166 +26215,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="110"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -28298,17 +27633,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -28337,166 +27672,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="110"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -29755,17 +29090,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -29794,166 +29129,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="110"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -31212,17 +30547,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -31251,166 +30586,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="110"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -32669,17 +32004,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -32694,7 +32029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DE4657-5189-4898-886C-7C2D21A61628}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
@@ -32708,166 +32043,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="110"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -34126,17 +33461,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -34165,166 +33500,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="129"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="110"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -35583,17 +34918,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -35615,6 +34950,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -35786,15 +35130,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2943A47C-3A6D-4AAA-B52D-79C0E305302C}">
   <ds:schemaRefs>
@@ -35806,6 +35141,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35821,12 +35164,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02_画面設計書・モックアップ/画面遷移図.xlsx
+++ b/02_画面設計書・モックアップ/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shing\Documents\GitHub\healthApp\healthApp\02_画面設計書・モックアップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B77EC3-2617-41F5-8A88-C7E9752B790E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33389329-C786-4571-8666-ADA4FF0C2C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="940" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -21,10 +21,8 @@
     <sheet name="画面遷移図(ホーム)" sheetId="13" r:id="rId6"/>
     <sheet name="画面遷移図(ユーザー情報)" sheetId="14" r:id="rId7"/>
     <sheet name="画面遷移図(レシピ)" sheetId="15" r:id="rId8"/>
-    <sheet name="CRUD図 " sheetId="20" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'CRUD図 '!$A$1:$M$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図 (ログイン)'!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'画面遷移図(パスワード再設定)'!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'画面遷移図(ホーム)'!$A$1:$AG$43</definedName>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -605,224 +603,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>CRUD図</t>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>健康アプリ</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>作成者</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>中嶋</t>
-    <rPh sb="0" eb="2">
-      <t>ナカシマ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>作成日付</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>工程名</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>システム設計</t>
-    <rPh sb="4" eb="6">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>更新者</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンシャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>更新日付</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ドキュメント名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>健康アプリ　データベース設計書</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>CRUD図名</t>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>健康アプリ　CRUD図</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>健康アプリにて使用するエンティティのCRUDを示す</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>エンティティ</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>ユーザー</t>
-  </si>
-  <si>
-    <t>運動</t>
-    <rPh sb="0" eb="2">
-      <t>ウンドウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>栄養</t>
-    <rPh sb="0" eb="2">
-      <t>エイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>レシピ</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>機
-能</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ノウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>ログイン機能</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>パスワード変更機能</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>新規作成機能</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>ユーザー情報変更機能</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>R,U</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>運動計算機能</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>C,R,U</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>栄養計算機能</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>レシピ投稿機能</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>C,R</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>パスワード再設定、ホーム、ユーザー情報、レシピ</t>
     <rPh sb="5" eb="8">
       <t>サイ</t>
@@ -855,7 +635,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -961,29 +741,8 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,14 +755,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1143,89 +896,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1241,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -1329,104 +999,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1436,15 +1008,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1454,9 +1020,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,6 +1040,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1502,26 +1074,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,41 +1140,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5809,175 +5357,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>112117</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>113986</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632A0B4E-AAC8-4941-9987-D355C58D82C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5651500" y="1531938"/>
-          <a:ext cx="747117" cy="304486"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>176212</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -6709,6 +6088,175 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>178899</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98DA4DE-FA42-4A40-8B58-0BA707BD62FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722938" y="1563688"/>
+          <a:ext cx="742461" cy="312198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>移行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18985,9 +18533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -19233,16 +18779,16 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="73" t="s">
+      <c r="X3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="75">
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="76">
         <v>45190</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="74"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="75"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="9"/>
@@ -19359,20 +18905,20 @@
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="88"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="48"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -19390,80 +18936,80 @@
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="102" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="104"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="73" t="s">
+      <c r="X8" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="73" t="s">
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="73" t="s">
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="74"/>
+      <c r="AC8" s="75"/>
       <c r="AD8" s="28"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="9"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="107"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="89" t="s">
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AC9" s="90"/>
+      <c r="AC9" s="53"/>
       <c r="AD9" s="28"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="9"/>
@@ -19492,12 +19038,12 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="92"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="55"/>
       <c r="AD10" s="28"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="9"/>
@@ -19526,12 +19072,12 @@
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="94"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="57"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="26"/>
       <c r="AF11" s="9"/>
@@ -19572,106 +19118,106 @@
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
       <c r="AF13" s="9"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="58"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
       <c r="AF14" s="9"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
       <c r="AF15" s="9"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
@@ -19810,646 +19356,646 @@
     </row>
     <row r="20" spans="1:32" ht="15" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="77" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="77" t="s">
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="77" t="s">
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="45"/>
       <c r="AF20" s="9"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="77">
+      <c r="B21" s="43">
         <v>1</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80">
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="59">
         <v>45190</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="77" t="s">
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="79"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="45"/>
       <c r="AF21" s="9"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="77">
+      <c r="B22" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="59">
         <v>45191</v>
       </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83" t="s">
-        <v>91</v>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="49" t="s">
+        <v>57</v>
       </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="77" t="s">
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="79"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="45"/>
       <c r="AF22" s="9"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="77">
+      <c r="B23" s="43">
         <v>1.2</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="59">
         <v>45215</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83" t="s">
-        <v>92</v>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="49" t="s">
+        <v>58</v>
       </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="77" t="s">
-        <v>93</v>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="43" t="s">
+        <v>59</v>
       </c>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="79"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45"/>
       <c r="AF23" s="9"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="79"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="45"/>
       <c r="AF24" s="9"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="79"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="45"/>
       <c r="AF25" s="9"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="79"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="45"/>
       <c r="AF26" s="9"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="8"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="79"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="50"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="45"/>
       <c r="AF27" s="9"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="8"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="79"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="45"/>
       <c r="AF28" s="9"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="79"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="50"/>
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="45"/>
       <c r="AF29" s="9"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="79"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="45"/>
       <c r="AF30" s="9"/>
     </row>
     <row r="31" spans="1:32" ht="15" customHeight="1">
       <c r="A31" s="8"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="79"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="50"/>
+      <c r="Z31" s="50"/>
+      <c r="AA31" s="50"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="45"/>
       <c r="AF31" s="9"/>
     </row>
     <row r="32" spans="1:32" ht="15" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="79"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="45"/>
       <c r="AF32" s="9"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="85"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="79"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="45"/>
       <c r="AF33" s="9"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="79"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="45"/>
       <c r="AF34" s="9"/>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="79"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="45"/>
       <c r="AF35" s="9"/>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="84"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="77"/>
-      <c r="AD36" s="78"/>
-      <c r="AE36" s="79"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="45"/>
       <c r="AF36" s="9"/>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
-      <c r="S37" s="84"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="84"/>
-      <c r="AA37" s="84"/>
-      <c r="AB37" s="85"/>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="79"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="45"/>
       <c r="AF37" s="9"/>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1">
@@ -20488,6 +20034,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="J22:AB22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="AC21:AE21"/>
@@ -20504,74 +20118,6 @@
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J22:AB22"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -20701,7 +20247,7 @@
   <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -20714,166 +20260,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="99"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="83"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -22132,17 +21678,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -22158,7 +21704,7 @@
   <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -22171,166 +21717,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="99"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="83"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -23589,17 +23135,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -23628,166 +23174,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="99"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="83"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -25046,17 +24592,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -25071,7 +24617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319B395-549C-4C08-B3CF-CDF0BCA4DE47}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
@@ -25085,166 +24631,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="99"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="83"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -26503,17 +26049,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -26542,166 +26088,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="99"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="83"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -27960,17 +27506,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -27999,166 +27545,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:33" ht="12">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="109" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109" t="s">
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="112" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="109" t="s">
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="111"/>
+      <c r="AG2" s="99"/>
     </row>
     <row r="3" spans="1:33" ht="12">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="115" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="121" t="s">
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="127" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="115" t="s">
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="117"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:33" ht="12">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="120"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="83"/>
     </row>
     <row r="5" spans="1:33" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -29417,17 +28963,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:Y4"/>
-    <mergeCell ref="Z3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Y2"/>
     <mergeCell ref="Z2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:Y4"/>
+    <mergeCell ref="Z3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -29438,402 +28984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B193FD9-58F8-41EC-B44E-8C0D0A3DC6E6}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="14.90625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="4" style="46" customWidth="1"/>
-    <col min="3" max="12" width="10.08984375" style="46" customWidth="1"/>
-    <col min="13" max="16384" width="8.90625" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="14">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="133">
-        <v>45197</v>
-      </c>
-      <c r="M2" s="134"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="135">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M4" s="134"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="53"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="58"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="60"/>
-    </row>
-    <row r="9" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="136" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="61"/>
-      <c r="M9" s="60"/>
-    </row>
-    <row r="10" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="66"/>
-    </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="142" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="66"/>
-    </row>
-    <row r="13" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="142" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="66"/>
-    </row>
-    <row r="15" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="66"/>
-    </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="66"/>
-    </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="65"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="66"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="58"/>
-      <c r="M18" s="60"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2B0453A4F97AA4594841E00C62E1F84" ma:contentTypeVersion="9" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b4ec096b6f6caeabb13d9a32e416b02d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a400ae294e8a05ebb5f0513890681b30" ns2:_="">
     <xsd:import namespace="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
@@ -30005,10 +29156,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30024,19 +29204,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82CC02B3-FCE5-4223-8B61-A8382C5BF06A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4199AB38-9DE8-4291-BA3F-88A9332031A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ab42d6c3-8a45-4ef0-9693-dca4c028aa1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>